--- a/biology/Médecine/Table_d'Ulpien/Table_d'Ulpien.xlsx
+++ b/biology/Médecine/Table_d'Ulpien/Table_d'Ulpien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table_d%27Ulpien</t>
+          <t>Table_d'Ulpien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Table d'Ulpien est une table de mortalité de la Rome antique. Elle est connue par une citation du juriste Aemilius Macer, reprise par le Digeste dû à Justinien. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table_d%27Ulpien</t>
+          <t>Table_d'Ulpien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Table</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le texte d'Ulpien présente en fait deux chiffres : la forma, qui est le barème prôné par Ulpien, et le barème coutumier (solitum est) qui serait plus ancienne[1]. La forma est décrite comme un moyen de calculer les alimenta et la valeur de l'usufruit. Les chiffres figurant en face de l'âge du bénéficiaire sont à multiplier par la valeur annuelle de l'annuité.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le texte d'Ulpien présente en fait deux chiffres : la forma, qui est le barème prôné par Ulpien, et le barème coutumier (solitum est) qui serait plus ancienne. La forma est décrite comme un moyen de calculer les alimenta et la valeur de l'usufruit. Les chiffres figurant en face de l'âge du bénéficiaire sont à multiplier par la valeur annuelle de l'annuité.  
 Attention, la table ne représente pas l'espérance de vie. Voir une discussion du problème dans l'article en anglais.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table_d%27Ulpien</t>
+          <t>Table_d'Ulpien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Texte original</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Digest 35.2.68, tr. S. P. Scott[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Digest 35.2.68, tr. S. P. Scott</t>
         </is>
       </c>
     </row>
